--- a/data/trans_dic/P75-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P75-Habitat-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 32,97</t>
+          <t>17,33; 33,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 30,82</t>
+          <t>15,08; 30,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 38,13</t>
+          <t>19,75; 39,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 27,71</t>
+          <t>12,73; 27,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 32,77</t>
+          <t>21,02; 33,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 25,94</t>
+          <t>16,17; 26,06</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,9; 37,45</t>
+          <t>29,8; 37,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,22</t>
+          <t>12,63; 18,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,79; 41,21</t>
+          <t>32,65; 40,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 20,97</t>
+          <t>14,72; 21,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,19; 37,88</t>
+          <t>32,34; 38,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,81</t>
+          <t>14,47; 18,97</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,08; 37,32</t>
+          <t>31,21; 37,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 23,12</t>
+          <t>18,05; 23,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,52; 41,71</t>
+          <t>35,32; 41,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,98</t>
+          <t>18,51; 24,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,13; 38,75</t>
+          <t>34,09; 38,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 22,72</t>
+          <t>19,11; 22,83</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,26; 25,76</t>
+          <t>19,21; 25,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,06</t>
+          <t>5,5; 9,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,63; 23,77</t>
+          <t>17,56; 23,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,43</t>
+          <t>6,48; 10,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 23,81</t>
+          <t>19,05; 23,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,22</t>
+          <t>6,45; 9,18</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,46</t>
+          <t>14,76; 19,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>9,04; 13,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,5; 16,65</t>
+          <t>12,62; 16,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,42</t>
+          <t>9,53; 13,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,96; 17,47</t>
+          <t>14,23; 17,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 12,7</t>
+          <t>9,9; 12,88</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,73; 27,97</t>
+          <t>24,79; 27,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,95; 15,32</t>
+          <t>12,97; 15,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,53; 28,54</t>
+          <t>25,38; 28,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,68; 16,14</t>
+          <t>13,63; 16,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,53; 27,79</t>
+          <t>25,58; 27,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 15,4</t>
+          <t>13,77; 15,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P75-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P75-Habitat-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 33,47</t>
+          <t>17,3; 34,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 30,67</t>
+          <t>14,66; 30,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,75; 39,16</t>
+          <t>19,08; 37,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 27,65</t>
+          <t>13,24; 27,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,02; 33,65</t>
+          <t>21,29; 33,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 26,06</t>
+          <t>15,79; 26,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,8; 37,77</t>
+          <t>29,61; 37,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,55</t>
+          <t>12,34; 18,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,65; 40,48</t>
+          <t>32,61; 40,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 21,28</t>
+          <t>14,71; 21,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 38,07</t>
+          <t>32,22; 37,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,97</t>
+          <t>14,72; 19,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,21; 37,4</t>
+          <t>30,98; 37,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,14</t>
+          <t>18,05; 23,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,32; 41,89</t>
+          <t>35,3; 41,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 24,1</t>
+          <t>18,68; 23,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,09; 38,48</t>
+          <t>34,13; 38,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,11; 22,83</t>
+          <t>19,12; 22,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,98</t>
+          <t>19,13; 25,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,15</t>
+          <t>5,45; 9,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 23,7</t>
+          <t>17,49; 23,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,45</t>
+          <t>6,47; 10,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 23,56</t>
+          <t>19,09; 23,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,18</t>
+          <t>6,45; 9,43</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,81</t>
+          <t>14,58; 19,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,12</t>
+          <t>9,04; 13,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,9</t>
+          <t>12,37; 17,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 13,8</t>
+          <t>9,59; 13,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,23; 17,54</t>
+          <t>14,04; 17,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 12,88</t>
+          <t>9,91; 12,72</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,79; 27,85</t>
+          <t>24,75; 28,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,4</t>
+          <t>12,98; 15,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,17 +1054,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 16,15</t>
+          <t>13,66; 16,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 27,78</t>
+          <t>25,49; 27,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 15,42</t>
+          <t>13,64; 15,43</t>
         </is>
       </c>
     </row>
